--- a/home_runs/hr.xlsx
+++ b/home_runs/hr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/home_runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A825F-C64B-9B48-BF6D-7A556385D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A879286-C4E3-F44E-9E08-5806559C7DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="1900" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Saltaire Softball League</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Isaac Smith, Dogfish</t>
   </si>
   <si>
-    <t>(As of 7/9/25)</t>
-  </si>
-  <si>
     <t>Nick Newman, Clippers</t>
   </si>
   <si>
@@ -165,6 +162,18 @@
   </si>
   <si>
     <t>Mike Perna, Outsiders</t>
+  </si>
+  <si>
+    <t>Anthony Smith, Fringe</t>
+  </si>
+  <si>
+    <t>Ben Berman, Outsiders</t>
+  </si>
+  <si>
+    <t>Shawn Pszczoiski, Dogfish</t>
+  </si>
+  <si>
+    <t>(As of 7/15/25)</t>
   </si>
 </sst>
 </file>
@@ -252,17 +261,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,14 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -296,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:I61"/>
+  <dimension ref="C1:I64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="43" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -611,420 +619,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="9" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="8" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="8" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="8" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="8" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="8" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="38" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
@@ -1043,12 +1068,12 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="6"/>
@@ -1067,12 +1092,12 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="6"/>
@@ -1179,12 +1204,12 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6"/>
@@ -1203,122 +1228,152 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
+  <mergeCells count="113">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="34" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/home_runs/hr.xlsx
+++ b/home_runs/hr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/home_runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252A5220-30D8-D34F-92ED-6370BFE97D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B85149-59B5-F44F-93DF-A57577C5E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Saltaire Softball League</t>
   </si>
@@ -176,14 +176,17 @@
     <t>Kieran Tirone, Riptide</t>
   </si>
   <si>
-    <t>(As of 7/21/25)</t>
+    <t>Luke Sirovich, Dragons</t>
+  </si>
+  <si>
+    <t>(As of 7/29/25)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,9 +309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,9 +598,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -612,275 +615,275 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:I63"/>
+  <dimension ref="C1:I64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="58.33203125" customWidth="1"/>
     <col min="8" max="8" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="35" customHeight="1">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="3:9" ht="35" customHeight="1">
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="3:9" ht="35" customHeight="1">
-      <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+    <row r="3" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="3:9" ht="35" customHeight="1">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="3:9" ht="35" customHeight="1">
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>4</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="3:9" ht="35" customHeight="1">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:9" ht="35" customHeight="1">
-      <c r="C7" s="11" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>4</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:9" ht="35" customHeight="1">
-      <c r="C8" s="6" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:9" ht="35" customHeight="1">
-      <c r="C9" s="6" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:9" ht="35" customHeight="1">
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="3:9" ht="35" customHeight="1">
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:9" ht="35" customHeight="1">
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
         <v>3</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="35" customHeight="1">
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
         <v>3</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:9" ht="35" customHeight="1">
-      <c r="C14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:9" ht="35" customHeight="1">
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:9" ht="35" customHeight="1">
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" ht="35" customHeight="1">
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" ht="35" customHeight="1">
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" ht="35" customHeight="1">
-      <c r="C19" s="6" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" ht="35" customHeight="1">
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" ht="35" customHeight="1">
-      <c r="C21" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -891,497 +894,513 @@
       <c r="H21" s="7"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="3:9" ht="35" customHeight="1">
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="3:9" ht="35" customHeight="1">
-      <c r="C23" s="6" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" ht="35" customHeight="1">
-      <c r="C24" s="6" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="3:9" ht="35" customHeight="1">
-      <c r="C25" s="6" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="3:9" ht="35" customHeight="1">
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="3:9" ht="35" customHeight="1">
-      <c r="C27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="3:9" ht="35" customHeight="1">
-      <c r="C28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="3:9" ht="35" customHeight="1">
-      <c r="C29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="3:9" ht="35" customHeight="1">
-      <c r="C30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="3:9" ht="35" customHeight="1">
-      <c r="C31" s="6" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="3:9" ht="35" customHeight="1">
-      <c r="C32" s="6" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="3:8" ht="35" customHeight="1">
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="3:8" ht="35" customHeight="1">
-      <c r="C34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="3:8" ht="35" customHeight="1">
-      <c r="C35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="37" spans="3:8" ht="35" customHeight="1">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="3:8" ht="35" customHeight="1">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="3:8" ht="35" customHeight="1">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="3:8" ht="35" customHeight="1">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="3:8" ht="35" customHeight="1">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="3:8" ht="35" customHeight="1">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="3:8" ht="35" customHeight="1">
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="3:8" ht="35" customHeight="1">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="3:8" ht="35" customHeight="1">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="3:8" ht="35" customHeight="1">
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="3:8" ht="35" customHeight="1">
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="3:8" ht="35" customHeight="1">
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="3:8" ht="35" customHeight="1">
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="3:8" ht="35" customHeight="1">
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="3:8" ht="35" customHeight="1">
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="3:8" ht="35" customHeight="1">
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="3:8" ht="35" customHeight="1">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="3:8" ht="35" customHeight="1">
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="3:8" ht="35" customHeight="1">
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="3:8" ht="35" customHeight="1">
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="3:8" ht="35" customHeight="1">
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="3:8" ht="35" customHeight="1">
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="3:8" ht="35" customHeight="1">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="3:8" ht="35" customHeight="1">
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="3:8" ht="35" customHeight="1">
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="3:8" ht="35" customHeight="1">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:8" ht="35" customHeight="1">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="38" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
+    <row r="64" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
+  <mergeCells count="115">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
     <mergeCell ref="C58:E58"/>
     <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="F56:H56"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:H49"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" r:id="rId1"/>

--- a/home_runs/hr.xlsx
+++ b/home_runs/hr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/home_runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B85149-59B5-F44F-93DF-A57577C5E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C754F24C-5B89-E347-AF25-005884CF15B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <t>Luke Sirovich, Dragons</t>
   </si>
   <si>
-    <t>(As of 7/29/25)</t>
+    <t>(As of 8/5/25)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,15 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,7 +302,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,8 +614,8 @@
   </sheetPr>
   <dimension ref="C1:I64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -628,495 +625,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
         <v>4</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>4</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>3</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
-        <v>3</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>3</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <v>2</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <v>1</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <v>1</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
         <v>1</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
         <v>1</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="38" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
@@ -1127,132 +1125,132 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
@@ -1263,20 +1261,20 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
@@ -1286,107 +1284,16 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="F61:H61"/>
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="F62:H62"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="C40:E40"/>
@@ -1401,6 +1308,97 @@
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" r:id="rId1"/>

--- a/home_runs/hr.xlsx
+++ b/home_runs/hr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/home_runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C754F24C-5B89-E347-AF25-005884CF15B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEB0CD-0215-1B45-9A3C-2103A803F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="2540" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>Luke Sirovich, Dragons</t>
   </si>
   <si>
-    <t>(As of 8/5/25)</t>
+    <t>(As of 8/11/25)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,15 +261,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,6 +281,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,16 +299,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,8 +605,8 @@
   </sheetPr>
   <dimension ref="C1:I64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -625,496 +616,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
         <v>6</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>5</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
         <v>4</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
         <v>2</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
-        <v>2</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="38" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
@@ -1125,132 +1116,132 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
@@ -1261,20 +1252,20 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
@@ -1284,52 +1275,56 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="C38:E38"/>
@@ -1349,56 +1344,52 @@
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" r:id="rId1"/>

--- a/home_runs/hr.xlsx
+++ b/home_runs/hr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackMacbook/Desktop/Dad/softball/home_runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEB0CD-0215-1B45-9A3C-2103A803F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7260B543-D058-334A-BBFD-C9BF7BED3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="2540" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="920" windowWidth="22480" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PB_CACHE" sheetId="16" state="veryHidden" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Saltaire Softball League</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Teddy Nagangast Jr, Riptide</t>
   </si>
   <si>
-    <t>2025 Human Race</t>
-  </si>
-  <si>
     <t>Bryan Ehlers, Clippers</t>
   </si>
   <si>
@@ -179,7 +176,22 @@
     <t>Luke Sirovich, Dragons</t>
   </si>
   <si>
-    <t>(As of 8/11/25)</t>
+    <t>(As of 8/18/25)</t>
+  </si>
+  <si>
+    <t>Steve Carroll, Bulkheads</t>
+  </si>
+  <si>
+    <t>Ryan Smith, Fringe</t>
+  </si>
+  <si>
+    <t>Dylan Freedman, Dragons</t>
+  </si>
+  <si>
+    <t>Buddy Palmer, Dragons</t>
+  </si>
+  <si>
+    <t>2025 Human Race - FINAL</t>
   </si>
 </sst>
 </file>
@@ -268,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,9 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,7 +308,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,10 +612,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:I64"/>
+  <dimension ref="C1:I68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:H36"/>
+      <selection activeCell="F14" sqref="F14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -616,488 +625,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>4</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
         <v>4</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>4</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="3:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="6"/>
@@ -1108,212 +1133,274 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="45" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="115">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
+  <mergeCells count="121">
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C23:E23"/>
@@ -1321,75 +1408,43 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F35:H35"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" r:id="rId1"/>
